--- a/InputFiles/CRDC/Section-D.xlsx
+++ b/InputFiles/CRDC/Section-D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\CRDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46CC15C-ED70-45F5-A2B8-549C0320156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FF00C7-7BE2-4270-8375-B1E19EBD9A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data-types" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +204,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5B8EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,24 +276,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD5B8EA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -704,10 +757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8341342-585B-4470-B407-05A3D5AC22E3}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,27 +773,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C2">
@@ -754,7 +807,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C3">
@@ -765,6 +819,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="C4">
         <v>5</v>
       </c>
@@ -773,11 +833,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
+      <c r="A5" s="16"/>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C5">
         <v>55</v>
@@ -787,8 +845,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>28</v>
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="C6">
         <v>44</v>
@@ -797,42 +858,37 @@
         <v>38</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
+      <c r="A8" s="16"/>
+      <c r="B8" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>30</v>
+      <c r="A9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B10" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="15" t="s">
         <v>33</v>
       </c>
     </row>
